--- a/HeavenlyChocolates.xlsx
+++ b/HeavenlyChocolates.xlsx
@@ -8,14 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/133e0e9c30ba4531/Desktop/OMBE_1320_YPX/QMBE_1320_YPX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBEC764-7937-417E-AE02-7F85DF944C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{1CBEC764-7937-417E-AE02-7F85DF944C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121A7A7E-9963-48C9-827F-4BC3936099C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="DescripStats" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$E$2:$E$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Data!$F$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Data!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Data!$F$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Data!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$F$2:$F$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$A$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Data!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Data!$E$2:$E$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -212,6 +228,1201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount Spent ($)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>54.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>158.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.66</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.910000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>155.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52.09</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71.81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84.17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55.58</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60.14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70.38</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>110.65</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>104.23</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>68.17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>103.15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77A2-457B-A066-4B61D5144A52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1446473968"/>
+        <c:axId val="1446473008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1446473968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446473008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1446473008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446473968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A9F13E-7589-2834-A96E-D540ABF3C55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="D1:D1048576 F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1539,6 +2750,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1546,7 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0135B15-0A08-4F5F-A0A5-E97358882316}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
